--- a/www/example_data/Calendar_new format_Saskia.xlsx
+++ b/www/example_data/Calendar_new format_Saskia.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -59,52 +59,46 @@
     <t>lightsalmon</t>
   </si>
   <si>
-    <t>Overig Kinderen op kamer</t>
-  </si>
-  <si>
     <t xml:space="preserve">School </t>
   </si>
   <si>
-    <t>Overig Wil niet werken</t>
-  </si>
-  <si>
-    <t>Overig Time-out</t>
-  </si>
-  <si>
-    <t>Beweging Buiten spelen</t>
-  </si>
-  <si>
-    <t>Overig Terug in klas</t>
-  </si>
-  <si>
-    <t>Dagindeling Lunch op Kompas</t>
-  </si>
-  <si>
-    <t>Stoplicht Oranje: Boos en verdrietig weggelopen; daarna wel weer gekalmeerd</t>
-  </si>
-  <si>
-    <t>Dagindeling Gym</t>
-  </si>
-  <si>
-    <t>Overig Boos</t>
-  </si>
-  <si>
-    <t>Dagindeling Kamertijd</t>
-  </si>
-  <si>
-    <t>Dagindeling Snoeppotmoment</t>
-  </si>
-  <si>
-    <t>Beweging Buiten spelen (vaak rennen en schreeuwen)</t>
-  </si>
-  <si>
-    <t>Beweging Vrij druk, rent vaak even</t>
-  </si>
-  <si>
-    <t>Dagindeling Rustmoment</t>
-  </si>
-  <si>
-    <t>Horloge Af; daarna niet meer gemeten</t>
+    <t>Play outside</t>
+  </si>
+  <si>
+    <t>Back in class</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>Angry and Sad</t>
+  </si>
+  <si>
+    <t>Gym</t>
+  </si>
+  <si>
+    <t>Angry</t>
+  </si>
+  <si>
+    <t>Child in room</t>
+  </si>
+  <si>
+    <t>Doesn't want work</t>
+  </si>
+  <si>
+    <t>Time-out</t>
+  </si>
+  <si>
+    <t>Candy</t>
+  </si>
+  <si>
+    <t>Play outside (was screaming a lot)</t>
+  </si>
+  <si>
+    <t>Play outside (was running a lot)</t>
+  </si>
+  <si>
+    <t>Rest</t>
   </si>
 </sst>
 </file>
@@ -460,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,7 +496,7 @@
         <v>0.4513888888888889</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -519,7 +513,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -533,7 +527,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -547,7 +541,7 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -564,7 +558,7 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -578,7 +572,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -595,7 +589,7 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -612,7 +606,7 @@
         <v>0.625</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>8</v>
@@ -629,7 +623,7 @@
         <v>0.6875</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
@@ -643,7 +637,7 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -660,7 +654,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>9</v>
@@ -674,7 +668,7 @@
         <v>0.66319444444444442</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -688,7 +682,7 @@
         <v>0.68402777777777779</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
@@ -705,7 +699,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -722,7 +716,7 @@
         <v>0.7416666666666667</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>10</v>
@@ -736,7 +730,7 @@
         <v>0.74305555555555547</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
         <v>6</v>
@@ -753,7 +747,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
@@ -770,7 +764,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -787,24 +781,10 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>43796</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0.875</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
